--- a/CsvToolTests/Files/Excel/Export/simpleExport.xlsx
+++ b/CsvToolTests/Files/Excel/Export/simpleExport.xlsx
@@ -370,33 +370,33 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C4"/>
+  <x:dimension ref="A1:B3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="B4" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
     </x:row>
